--- a/dataset/excel data/20-573.xlsx
+++ b/dataset/excel data/20-573.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\실험데이터\★★버블맵프로그램및도면이미지\도면이미지\★논문유형 10\18-279-1\1. orignal image\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\버블맵프로그램및도면이미지\도면이미지\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49991A73-C23D-4244-82AF-D5E93B665C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1CDEC6-F23C-4ADA-A922-699D31FEED4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34680" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="375" windowWidth="26340" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20-573" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="109">
   <si>
     <t>인접공간ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,7 +271,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.0574</t>
+    <t>0.0524</t>
   </si>
   <si>
     <t>1835</t>
@@ -280,109 +280,151 @@
     <t>FOY</t>
   </si>
   <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>0.908</t>
+  </si>
+  <si>
+    <t>0.0532</t>
+  </si>
+  <si>
+    <t>CLO</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>0.0254</t>
+  </si>
+  <si>
+    <t>LIV</t>
+  </si>
+  <si>
+    <t>LAU</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>0.7959</t>
+  </si>
+  <si>
+    <t>0.0037</t>
+  </si>
+  <si>
     <t>KIT</t>
   </si>
   <si>
-    <t>0.0472</t>
-  </si>
-  <si>
-    <t>LIV</t>
+    <t>0.0464</t>
   </si>
   <si>
     <t>PAN</t>
   </si>
   <si>
-    <t>0.0183</t>
-  </si>
-  <si>
-    <t>CLO</t>
+    <t>0.9706</t>
+  </si>
+  <si>
+    <t>0.0022</t>
   </si>
   <si>
     <t>STA</t>
   </si>
   <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>0.0272</t>
+  </si>
+  <si>
+    <t>0.5461</t>
+  </si>
+  <si>
+    <t>0.0244</t>
+  </si>
+  <si>
+    <t>GAR</t>
+  </si>
+  <si>
+    <t>0.1714</t>
+  </si>
+  <si>
+    <t>0.8505</t>
+  </si>
+  <si>
+    <t>0.2742</t>
+  </si>
+  <si>
     <t>POR</t>
   </si>
   <si>
-    <t>BED</t>
-  </si>
-  <si>
-    <t>0.8712</t>
-  </si>
-  <si>
-    <t>0.0576</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>0.549</t>
-  </si>
-  <si>
-    <t>0.0278</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.0056</t>
-  </si>
-  <si>
-    <t>0.8679</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>0.8795</t>
-  </si>
-  <si>
-    <t>0.0074</t>
-  </si>
-  <si>
-    <t>0.4677</t>
-  </si>
-  <si>
-    <t>0.1225</t>
-  </si>
-  <si>
-    <t>0.8624</t>
-  </si>
-  <si>
-    <t>0.3374</t>
-  </si>
-  <si>
-    <t>0.0369</t>
-  </si>
-  <si>
-    <t>LAU</t>
-  </si>
-  <si>
-    <t>GAR</t>
-  </si>
-  <si>
-    <t>0.1909</t>
-  </si>
-  <si>
-    <t>0.8209</t>
-  </si>
-  <si>
-    <t>0.0045</t>
-  </si>
-  <si>
-    <t>0.8777</t>
-  </si>
-  <si>
-    <t>0.0206</t>
-  </si>
-  <si>
-    <t>0.0049</t>
-  </si>
-  <si>
-    <t>0.0048</t>
+    <t>0.4448</t>
+  </si>
+  <si>
+    <t>0.1019</t>
+  </si>
+  <si>
+    <t>0.0194</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>20-573-2</t>
+  </si>
+  <si>
+    <t>0.1885</t>
+  </si>
+  <si>
+    <t>0.0495</t>
+  </si>
+  <si>
+    <t>0.7121</t>
+  </si>
+  <si>
+    <t>0.0603</t>
+  </si>
+  <si>
+    <t>DRE</t>
+  </si>
+  <si>
+    <t>0.5915</t>
+  </si>
+  <si>
+    <t>0.0773</t>
+  </si>
+  <si>
+    <t>0.7237</t>
+  </si>
+  <si>
+    <t>0.0203</t>
+  </si>
+  <si>
+    <t>0.1014</t>
+  </si>
+  <si>
+    <t>0.8239</t>
+  </si>
+  <si>
+    <t>0.0807</t>
+  </si>
+  <si>
+    <t>0.8951</t>
+  </si>
+  <si>
+    <t>0.1141</t>
+  </si>
+  <si>
+    <t>0.7564</t>
+  </si>
+  <si>
+    <t>0.0224</t>
   </si>
 </sst>
 </file>
@@ -531,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,13 +583,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -562,13 +604,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -577,37 +619,40 @@
     <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -895,7 +940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AF52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
@@ -937,30 +982,30 @@
       <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="15" t="s">
         <v>44</v>
       </c>
@@ -989,14 +1034,14 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="20" t="s">
         <v>22</v>
       </c>
@@ -1067,10 +1112,10 @@
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1249,13 +1294,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.18479999999999999</v>
+        <v>0.17480000000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>0.31069999999999998</v>
+        <v>0.29980000000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.89959999999999996</v>
+        <v>0.97009999999999996</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>54</v>
@@ -1335,22 +1380,22 @@
         <v>60</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.16320000000000001</v>
+        <v>0.18770000000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>0.28899999999999998</v>
+        <v>0.28370000000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.85450000000000004</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>55</v>
@@ -1362,7 +1407,7 @@
         <v>56</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>58</v>
@@ -1374,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1389,28 +1434,28 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB6" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AC6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
@@ -1427,22 +1472,22 @@
         <v>60</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.16320000000000001</v>
+        <v>0.18770000000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>0.28899999999999998</v>
+        <v>0.28370000000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.85450000000000004</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>55</v>
@@ -1454,7 +1499,7 @@
         <v>56</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>58</v>
@@ -1466,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1481,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AB7" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="1">
         <v>1</v>
@@ -1516,25 +1561,25 @@
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>9.8699999999999996E-2</v>
+        <v>0.18770000000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>0.18590000000000001</v>
+        <v>0.28370000000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.80289999999999995</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>55</v>
@@ -1546,7 +1591,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>58</v>
@@ -1558,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1576,25 +1621,25 @@
         <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC8" s="1">
         <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1608,22 +1653,22 @@
         <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>9.8699999999999996E-2</v>
+        <v>0.1003</v>
       </c>
       <c r="I9" s="1">
-        <v>0.18590000000000001</v>
+        <v>0.25309999999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.80289999999999995</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>54</v>
@@ -1638,7 +1683,7 @@
         <v>56</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>58</v>
@@ -1650,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1665,28 +1710,28 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB9" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
         <v>1</v>
       </c>
       <c r="AD9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
@@ -1700,22 +1745,22 @@
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>9.8699999999999996E-2</v>
+        <v>0.1003</v>
       </c>
       <c r="I10" s="1">
-        <v>0.18590000000000001</v>
+        <v>0.25309999999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.80289999999999995</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>54</v>
@@ -1730,7 +1775,7 @@
         <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>58</v>
@@ -1742,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1757,16 +1802,16 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AB10" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AC10" s="1">
         <v>1</v>
@@ -1778,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
@@ -1792,22 +1837,22 @@
         <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>9.8699999999999996E-2</v>
+        <v>0.1003</v>
       </c>
       <c r="I11" s="1">
-        <v>0.18590000000000001</v>
+        <v>0.25309999999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.80289999999999995</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>54</v>
@@ -1822,7 +1867,7 @@
         <v>56</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>58</v>
@@ -1834,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1849,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB11" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC11" s="1">
         <v>1</v>
@@ -1884,22 +1929,22 @@
         <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>9.8699999999999996E-2</v>
+        <v>0.1003</v>
       </c>
       <c r="I12" s="1">
-        <v>0.18590000000000001</v>
+        <v>0.25309999999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.80289999999999995</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>54</v>
@@ -1914,7 +1959,7 @@
         <v>56</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>58</v>
@@ -1926,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -1941,28 +1986,28 @@
         <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB12" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="1">
         <v>1</v>
       </c>
       <c r="AD12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
@@ -1976,25 +2021,25 @@
         <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0.20899999999999999</v>
+        <v>0.1003</v>
       </c>
       <c r="I13" s="1">
-        <v>0.27539999999999998</v>
+        <v>0.25309999999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>55</v>
@@ -2006,7 +2051,7 @@
         <v>56</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>58</v>
@@ -2018,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2033,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB13" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AC13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="1">
         <v>1</v>
@@ -2068,25 +2113,25 @@
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0.20899999999999999</v>
+        <v>0.1003</v>
       </c>
       <c r="I14" s="1">
-        <v>0.27539999999999998</v>
+        <v>0.25309999999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>55</v>
@@ -2098,7 +2143,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>58</v>
@@ -2110,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2125,19 +2170,19 @@
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AB14" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AC14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="1">
         <v>1</v>
@@ -2160,19 +2205,19 @@
         <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.20899999999999999</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="I15" s="1">
-        <v>0.27539999999999998</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2202,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2217,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AB15" s="1">
         <v>8</v>
@@ -2252,25 +2297,25 @@
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0.183</v>
+        <v>0.15859999999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>0.152</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0.90180000000000005</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>55</v>
@@ -2282,7 +2327,7 @@
         <v>56</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>58</v>
@@ -2315,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AB16" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1">
         <v>1</v>
       </c>
       <c r="AD16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
@@ -2344,25 +2389,25 @@
         <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>7.17E-2</v>
+        <v>0.15859999999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>7.8700000000000006E-2</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0.90180000000000005</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>55</v>
@@ -2374,7 +2419,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>58</v>
@@ -2407,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC17" s="1">
         <v>1</v>
@@ -2436,7 +2481,7 @@
         <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F18" s="1">
         <v>9</v>
@@ -2445,16 +2490,16 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>4.7500000000000001E-2</v>
+        <v>3.6700000000000003E-2</v>
       </c>
       <c r="I18" s="1">
-        <v>6.2399999999999997E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>55</v>
@@ -2466,7 +2511,7 @@
         <v>56</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>58</v>
@@ -2499,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AB18" s="1">
         <v>3</v>
@@ -2528,7 +2573,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1">
         <v>7</v>
@@ -2537,16 +2582,16 @@
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>7.4399999999999994E-2</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>9.9099999999999994E-2</v>
+        <v>0.21010000000000001</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>55</v>
@@ -2558,7 +2603,7 @@
         <v>56</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>58</v>
@@ -2567,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -2585,28 +2630,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="AB19" s="1">
         <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
@@ -2620,25 +2665,25 @@
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F20" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0.41610000000000003</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>0.2944</v>
+        <v>0.21010000000000001</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>55</v>
@@ -2650,7 +2695,7 @@
         <v>56</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>58</v>
@@ -2677,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>59</v>
@@ -2712,25 +2757,25 @@
         <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0.50849999999999995</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>0.66349999999999998</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>55</v>
@@ -2742,7 +2787,7 @@
         <v>56</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>58</v>
@@ -2751,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -2769,28 +2814,28 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AB21" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AC21" s="1">
         <v>1</v>
       </c>
       <c r="AD21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
@@ -2804,25 +2849,25 @@
         <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>0.50849999999999995</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>0.66349999999999998</v>
+        <v>0.56730000000000003</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0.8861</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>55</v>
@@ -2834,7 +2879,7 @@
         <v>56</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>58</v>
@@ -2843,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -2864,25 +2909,25 @@
         <v>1</v>
       </c>
       <c r="Y22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC22" s="1">
         <v>1</v>
       </c>
       <c r="AD22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.3">
@@ -2896,7 +2941,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2905,10 +2950,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0.50849999999999995</v>
+        <v>0.44009999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>0.66349999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -2959,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AB23" s="1">
         <v>8</v>
@@ -2988,7 +3033,7 @@
         <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2997,10 +3042,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0.50849999999999995</v>
+        <v>0.44009999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>0.66349999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -3054,7 +3099,7 @@
         <v>71</v>
       </c>
       <c r="AB24" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC24" s="1">
         <v>1</v>
@@ -3080,25 +3125,25 @@
         <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0.1202</v>
+        <v>0.44009999999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>0.30659999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="J25" s="1">
-        <v>0.59289999999999998</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>55</v>
@@ -3110,7 +3155,7 @@
         <v>56</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>58</v>
@@ -3119,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -3137,16 +3182,16 @@
         <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB25" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC25" s="1">
         <v>1</v>
@@ -3172,25 +3217,25 @@
         <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F26" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0.1202</v>
+        <v>0.44009999999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>0.30659999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="J26" s="1">
-        <v>0.59289999999999998</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>55</v>
@@ -3202,7 +3247,7 @@
         <v>56</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>58</v>
@@ -3211,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -3229,28 +3274,28 @@
         <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AB26" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.3">
@@ -3264,25 +3309,25 @@
         <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0.1202</v>
+        <v>0.37109999999999999</v>
       </c>
       <c r="I27" s="1">
-        <v>0.30659999999999998</v>
+        <v>0.2747</v>
       </c>
       <c r="J27" s="1">
-        <v>0.59289999999999998</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>55</v>
@@ -3294,7 +3339,7 @@
         <v>56</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>58</v>
@@ -3306,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T27" s="1">
         <v>0</v>
@@ -3327,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="AB27" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="1">
         <v>1</v>
@@ -3356,22 +3401,22 @@
         <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F28" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>0.1202</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>0.30659999999999998</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="J28" s="1">
-        <v>0.59289999999999998</v>
+        <v>0.82730000000000004</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>54</v>
@@ -3386,7 +3431,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>58</v>
@@ -3398,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -3413,13 +3458,13 @@
         <v>0</v>
       </c>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB28" s="1">
         <v>1</v>
@@ -3448,22 +3493,22 @@
         <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>0.1202</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="I29" s="1">
-        <v>0.30659999999999998</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="J29" s="1">
-        <v>0.59289999999999998</v>
+        <v>0.82730000000000004</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>54</v>
@@ -3478,7 +3523,7 @@
         <v>56</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>58</v>
@@ -3490,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
@@ -3505,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="AB29" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AC29" s="1">
         <v>1</v>
@@ -3526,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.3">
@@ -3540,22 +3585,22 @@
         <v>52</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F30" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>0.1202</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>0.30659999999999998</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="J30" s="1">
-        <v>0.59289999999999998</v>
+        <v>0.82730000000000004</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>54</v>
@@ -3570,7 +3615,7 @@
         <v>56</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>58</v>
@@ -3582,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T30" s="1">
         <v>0</v>
@@ -3597,16 +3642,16 @@
         <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AB30" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC30" s="1">
         <v>1</v>
@@ -3632,22 +3677,22 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F31" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>0.33900000000000002</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>0.56310000000000004</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="J31" s="1">
-        <v>0.91080000000000005</v>
+        <v>0.82730000000000004</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>54</v>
@@ -3674,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31" s="1">
         <v>0</v>
@@ -3692,13 +3737,13 @@
         <v>1</v>
       </c>
       <c r="Y31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AB31" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AC31" s="1">
         <v>1</v>
@@ -3724,25 +3769,25 @@
         <v>52</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>6.0100000000000001E-2</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>7.46E-2</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0.82730000000000004</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>55</v>
@@ -3754,7 +3799,7 @@
         <v>56</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>58</v>
@@ -3766,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T32" s="1">
         <v>0</v>
@@ -3781,16 +3826,16 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AB32" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AC32" s="1">
         <v>1</v>
@@ -3816,7 +3861,7 @@
         <v>52</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F33" s="1">
         <v>10</v>
@@ -3825,16 +3870,16 @@
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>0.12470000000000001</v>
+        <v>0.1079</v>
       </c>
       <c r="I33" s="1">
-        <v>0.16550000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>55</v>
@@ -3846,7 +3891,7 @@
         <v>56</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>58</v>
@@ -3879,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AB33" s="1">
         <v>19</v>
@@ -3908,7 +3953,7 @@
         <v>52</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F34" s="1">
         <v>10</v>
@@ -3917,16 +3962,16 @@
         <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>0.12470000000000001</v>
+        <v>0.1079</v>
       </c>
       <c r="I34" s="1">
-        <v>0.16550000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>55</v>
@@ -3938,7 +3983,7 @@
         <v>56</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>58</v>
@@ -3971,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AB34" s="1">
         <v>8</v>
@@ -4000,22 +4045,22 @@
         <v>52</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F35" s="1">
         <v>11</v>
       </c>
       <c r="G35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1">
-        <v>4.7500000000000001E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="I35" s="1">
-        <v>0.1031</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="J35" s="1">
-        <v>0.69740000000000002</v>
+        <v>0.73580000000000001</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>54</v>
@@ -4030,7 +4075,7 @@
         <v>56</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>58</v>
@@ -4063,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AB35" s="1">
         <v>2</v>
@@ -4092,22 +4137,22 @@
         <v>52</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F36" s="1">
         <v>11</v>
       </c>
       <c r="G36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="1">
-        <v>4.5699999999999998E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>0.10580000000000001</v>
+        <v>0.1023</v>
       </c>
       <c r="J36" s="1">
-        <v>0.65380000000000005</v>
+        <v>0.63160000000000005</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>54</v>
@@ -4122,7 +4167,7 @@
         <v>56</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>58</v>
@@ -4155,21 +4200,1493 @@
         <v>0</v>
       </c>
       <c r="AA36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>2</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB36" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="1">
+      <c r="AB37" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>2</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.1123</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <v>2</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="1">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.1123</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>2</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="1">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.1123</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
+        <v>2</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>1</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>2</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>2</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="1">
+        <v>8</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1">
+        <v>2</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.25779999999999997</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.3931</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>1</v>
+      </c>
+      <c r="S47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.25779999999999997</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.3931</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1</v>
+      </c>
+      <c r="S48" s="1">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="1">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.30869999999999997</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.3826</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>1</v>
+      </c>
+      <c r="S50" s="1">
+        <v>1</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.3826</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1</v>
+      </c>
+      <c r="U51" s="1">
+        <v>1</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>1</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="1">
         <v>0.25</v>
       </c>
     </row>
